--- a/medicine/Enfance/Prix_du_Gouverneur_général___littérature_jeunesse_de_langue_anglaise_-_illustration/Prix_du_Gouverneur_général___littérature_jeunesse_de_langue_anglaise_-_illustration.xlsx
+++ b/medicine/Enfance/Prix_du_Gouverneur_général___littérature_jeunesse_de_langue_anglaise_-_illustration/Prix_du_Gouverneur_général___littérature_jeunesse_de_langue_anglaise_-_illustration.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_du_Gouverneur_g%C3%A9n%C3%A9ral_:_litt%C3%A9rature_jeunesse_de_langue_anglaise_-_illustration</t>
+          <t>Prix_du_Gouverneur_général_:_littérature_jeunesse_de_langue_anglaise_-_illustration</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Voici une liste des lauréats du prix littéraire du Gouverneur général dans la catégorie littérature jeunesse de langue anglaise - illustration. Ce prix fut décerné pour la première fois en 1987, en même temps que le prix du Gouverneur général : littérature jeunesse de langue française - illustration.
 1987 - Marie-Louise Gay, Rainy Day Magic
@@ -518,7 +530,7 @@
 2019 - Sydney Smith, Small in the City
 2020 - The Fan Brothers (Terry, Eric et Devin Fan), The Barnabus Project
 2021 - David A. Robertson et Julie Flett, On the Trapline
-2022 - Naseem Hrab et Nahid Kazemi, The Sour Cherry Tree[1]</t>
+2022 - Naseem Hrab et Nahid Kazemi, The Sour Cherry Tree</t>
         </is>
       </c>
     </row>
